--- a/Simulations/k_parameter.xlsx
+++ b/Simulations/k_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934F764-78B7-2A46-97C7-1F1E582E5CF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77534386-B072-5440-B9E8-DA9B9413B3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="460" windowWidth="17620" windowHeight="17540" xr2:uid="{DA6DE684-36AE-164A-B7AC-4615E105806D}"/>
+    <workbookView xWindow="10300" yWindow="1320" windowWidth="17620" windowHeight="18640" xr2:uid="{DA6DE684-36AE-164A-B7AC-4615E105806D}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4464,11 +4466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55308727-10D6-9C4C-9289-7D7AF356455C}">
   <dimension ref="A1:B1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5219,7 +5224,7 @@
         <v>35</v>
       </c>
       <c r="B94">
-        <v>5479200</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -5227,7 +5232,7 @@
         <v>36</v>
       </c>
       <c r="B95">
-        <v>7956000</v>
+        <v>669600</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -5867,7 +5872,8 @@
         <v>83</v>
       </c>
       <c r="B175">
-        <v>4903200</v>
+        <f>70*3600</f>
+        <v>252000</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +5889,8 @@
         <v>85</v>
       </c>
       <c r="B177">
-        <v>2451600</v>
+        <f>35*3600</f>
+        <v>126000</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -6067,6 +6074,7 @@
         <v>97</v>
       </c>
       <c r="B200">
+        <f>8.8*3600</f>
         <v>31680.000000000004</v>
       </c>
     </row>
@@ -6347,7 +6355,8 @@
         <v>122</v>
       </c>
       <c r="B235">
-        <v>183600</v>
+        <f>17.3*3600</f>
+        <v>62280</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -6515,7 +6524,8 @@
         <v>1135</v>
       </c>
       <c r="B256">
-        <v>2296800</v>
+        <f>64*3600</f>
+        <v>230400</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -6531,7 +6541,8 @@
         <v>1137</v>
       </c>
       <c r="B258">
-        <v>2296800</v>
+        <f>64*3600</f>
+        <v>230400</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -8187,7 +8198,8 @@
         <v>278</v>
       </c>
       <c r="B465">
-        <v>146160</v>
+        <f>23.7873*3600</f>
+        <v>85634.28</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -9771,7 +9783,7 @@
         <v>411</v>
       </c>
       <c r="B663">
-        <v>23040000</v>
+        <v>11557684.319999998</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -9787,7 +9799,7 @@
         <v>413</v>
       </c>
       <c r="B665">
-        <v>23040000</v>
+        <v>11732814.239999998</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -9803,7 +9815,7 @@
         <v>415</v>
       </c>
       <c r="B667">
-        <v>23040000</v>
+        <v>11775650.879999999</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -10971,7 +10983,8 @@
         <v>495</v>
       </c>
       <c r="B813">
-        <v>1771200</v>
+        <f>20400*3600</f>
+        <v>73440000</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
@@ -10979,7 +10992,8 @@
         <v>496</v>
       </c>
       <c r="B814">
-        <v>170640</v>
+        <f>540*3600</f>
+        <v>1944000</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
@@ -10987,7 +11001,8 @@
         <v>497</v>
       </c>
       <c r="B815">
-        <v>1771200</v>
+        <f>20400*3600</f>
+        <v>73440000</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
@@ -10995,7 +11010,8 @@
         <v>498</v>
       </c>
       <c r="B816">
-        <v>170640</v>
+        <f>540*3600</f>
+        <v>1944000</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
@@ -11195,7 +11211,7 @@
         <v>516</v>
       </c>
       <c r="B841">
-        <v>892800</v>
+        <v>1383512.5416000001</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
@@ -11203,7 +11219,8 @@
         <v>517</v>
       </c>
       <c r="B842">
-        <v>92160</v>
+        <f>53*3600</f>
+        <v>190800</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
@@ -11859,7 +11876,8 @@
         <v>576</v>
       </c>
       <c r="B924">
-        <v>10800000</v>
+        <f>50.67*3600</f>
+        <v>182412</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
@@ -11867,7 +11885,8 @@
         <v>577</v>
       </c>
       <c r="B925">
-        <v>13874400</v>
+        <f>258.67*3600</f>
+        <v>931212</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">

--- a/Simulations/k_parameter.xlsx
+++ b/Simulations/k_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77534386-B072-5440-B9E8-DA9B9413B3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA1A81-9A2B-9F40-91CD-65DF4D7CDE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="1320" windowWidth="17620" windowHeight="18640" xr2:uid="{DA6DE684-36AE-164A-B7AC-4615E105806D}"/>
   </bookViews>
@@ -4467,7 +4467,7 @@
   <dimension ref="A1:B1140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5872,7 +5872,6 @@
         <v>83</v>
       </c>
       <c r="B175">
-        <f>70*3600</f>
         <v>252000</v>
       </c>
     </row>
@@ -5889,7 +5888,6 @@
         <v>85</v>
       </c>
       <c r="B177">
-        <f>35*3600</f>
         <v>126000</v>
       </c>
     </row>
@@ -6074,7 +6072,6 @@
         <v>97</v>
       </c>
       <c r="B200">
-        <f>8.8*3600</f>
         <v>31680.000000000004</v>
       </c>
     </row>
@@ -6355,8 +6352,7 @@
         <v>122</v>
       </c>
       <c r="B235">
-        <f>17.3*3600</f>
-        <v>62280</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -6364,7 +6360,7 @@
         <v>123</v>
       </c>
       <c r="B236">
-        <v>4212000</v>
+        <v>1404000</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -6524,8 +6520,7 @@
         <v>1135</v>
       </c>
       <c r="B256">
-        <f>64*3600</f>
-        <v>230400</v>
+        <v>230937.60000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -6541,8 +6536,7 @@
         <v>1137</v>
       </c>
       <c r="B258">
-        <f>64*3600</f>
-        <v>230400</v>
+        <v>230937.60000000001</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -8118,7 +8112,7 @@
         <v>276</v>
       </c>
       <c r="B455">
-        <v>189720</v>
+        <v>356040</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -8198,8 +8192,7 @@
         <v>278</v>
       </c>
       <c r="B465">
-        <f>23.7873*3600</f>
-        <v>85634.28</v>
+        <v>85634.304000000004</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -10983,7 +10976,6 @@
         <v>495</v>
       </c>
       <c r="B813">
-        <f>20400*3600</f>
         <v>73440000</v>
       </c>
     </row>
@@ -10992,7 +10984,6 @@
         <v>496</v>
       </c>
       <c r="B814">
-        <f>540*3600</f>
         <v>1944000</v>
       </c>
     </row>
@@ -11001,7 +10992,6 @@
         <v>497</v>
       </c>
       <c r="B815">
-        <f>20400*3600</f>
         <v>73440000</v>
       </c>
     </row>
@@ -11010,7 +11000,6 @@
         <v>498</v>
       </c>
       <c r="B816">
-        <f>540*3600</f>
         <v>1944000</v>
       </c>
     </row>
@@ -11219,7 +11208,6 @@
         <v>517</v>
       </c>
       <c r="B842">
-        <f>53*3600</f>
         <v>190800</v>
       </c>
     </row>
@@ -11876,8 +11864,7 @@
         <v>576</v>
       </c>
       <c r="B924">
-        <f>50.67*3600</f>
-        <v>182412</v>
+        <v>182400</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
@@ -11885,8 +11872,7 @@
         <v>577</v>
       </c>
       <c r="B925">
-        <f>258.67*3600</f>
-        <v>931212</v>
+        <v>931200.00000000012</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
@@ -12038,7 +12024,7 @@
         <v>594</v>
       </c>
       <c r="B944">
-        <v>46137600</v>
+        <v>977136.29999999993</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">

--- a/Simulations/k_parameter.xlsx
+++ b/Simulations/k_parameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EA1A81-9A2B-9F40-91CD-65DF4D7CDE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5BB04-DF38-7E45-8D67-8C307E2B9B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="1320" windowWidth="17620" windowHeight="18640" xr2:uid="{DA6DE684-36AE-164A-B7AC-4615E105806D}"/>
   </bookViews>
@@ -4466,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55308727-10D6-9C4C-9289-7D7AF356455C}">
   <dimension ref="A1:B1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6072,7 +6072,7 @@
         <v>97</v>
       </c>
       <c r="B200">
-        <v>31680.000000000004</v>
+        <v>23760</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
         <v>1117</v>
       </c>
       <c r="B201">
-        <v>360000</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>1118</v>
       </c>
       <c r="B202">
-        <v>360000</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -6096,7 +6096,7 @@
         <v>1119</v>
       </c>
       <c r="B203">
-        <v>360000</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -6104,7 +6104,7 @@
         <v>1120</v>
       </c>
       <c r="B204">
-        <v>360000</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -6520,7 +6520,7 @@
         <v>1135</v>
       </c>
       <c r="B256">
-        <v>230937.60000000001</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -6536,7 +6536,7 @@
         <v>1137</v>
       </c>
       <c r="B258">
-        <v>230937.60000000001</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -10976,7 +10976,7 @@
         <v>495</v>
       </c>
       <c r="B813">
-        <v>73440000</v>
+        <v>12204000</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
@@ -10992,7 +10992,7 @@
         <v>497</v>
       </c>
       <c r="B815">
-        <v>73440000</v>
+        <v>12204000</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
